--- a/Y_样本_example.xlsx
+++ b/Y_样本_example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8640"/>
+    <workbookView windowWidth="20385" windowHeight="8640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="weapon" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119">
+  <si>
+    <t>武器配置</t>
+  </si>
+  <si>
+    <t>这里可以随便写一些注释</t>
+  </si>
+  <si>
+    <t>you can write what you want to write here</t>
+  </si>
+  <si>
+    <t>这此数据不会被导出</t>
+  </si>
   <si>
     <t>array</t>
   </si>
@@ -226,6 +238,9 @@
     <t>*爆炎剑.巴塔路西斯&amp;爆炎师.巴塔路西斯&amp;爆炎拳.巴塔路西斯 掉落(地下城: 远古墓穴深处)*在NPC克伦特的物品店购买(阿拉德陨石 ×150)</t>
   </si>
   <si>
+    <t>英雄配置</t>
+  </si>
+  <si>
     <t>英雄id</t>
   </si>
   <si>
@@ -302,6 +317,9 @@
   </si>
   <si>
     <t>{"测试数据",99,{res = 1,id = 10001,count = 1}}</t>
+  </si>
+  <si>
+    <t>活动配置</t>
   </si>
   <si>
     <t>object</t>
@@ -364,14 +382,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -385,30 +409,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,8 +429,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -443,11 +459,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -460,16 +475,31 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -484,22 +514,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,22 +550,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -548,25 +572,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,19 +674,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,133 +752,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,17 +781,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -775,11 +799,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -799,13 +829,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -825,17 +859,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -844,152 +874,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="fill"/>
@@ -999,8 +1029,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1316,196 +1348,184 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="4" max="4" width="23.625" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
     <col min="6" max="6" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="13.5" customHeight="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" customFormat="1"/>
+    <row r="3" s="4" customFormat="1" ht="13.5" customHeight="1" spans="1:6">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" s="4" customFormat="1" ht="13.5" customHeight="1" spans="2:6">
-      <c r="B2" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" s="4" customFormat="1" ht="13.5" customHeight="1" spans="1:5">
-      <c r="A3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" s="4" customFormat="1" ht="13.5" customHeight="1" spans="1:6">
-      <c r="A4" s="4" t="s">
-        <v>14</v>
-      </c>
+    </row>
+    <row r="4" s="4" customFormat="1" ht="13.5" customHeight="1" spans="2:6">
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" s="4" customFormat="1" ht="13.5" customHeight="1" spans="1:5">
+      <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" customFormat="1" ht="13.5" customHeight="1" spans="2:6">
-      <c r="B5">
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" s="4" customFormat="1" ht="13.5" customHeight="1" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="13.5" customHeight="1" spans="2:6">
+      <c r="B7">
         <v>0</v>
       </c>
-      <c r="C5">
+      <c r="C7">
         <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" ht="13.5" customHeight="1" spans="2:6">
-      <c r="B6">
-        <v>1001</v>
-      </c>
-      <c r="C6">
-        <v>85</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" ht="13.5" customHeight="1" spans="2:6">
-      <c r="B7">
-        <v>1002</v>
-      </c>
-      <c r="C7">
-        <v>85</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" ht="13.5" customHeight="1" spans="2:6">
       <c r="B8">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C8">
         <v>85</v>
       </c>
       <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" ht="13.5" customHeight="1" spans="2:6">
       <c r="B9">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C9">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
         <v>25</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" ht="13.5" customHeight="1" spans="2:6">
       <c r="B10">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C10">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
         <v>28</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" ht="13.5" customHeight="1" spans="2:6">
       <c r="B11">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C11">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
         <v>30</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -1514,10 +1534,10 @@
     </row>
     <row r="12" ht="13.5" customHeight="1" spans="2:6">
       <c r="B12">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C12">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
         <v>32</v>
@@ -1528,85 +1548,85 @@
     </row>
     <row r="13" ht="13.5" customHeight="1" spans="2:6">
       <c r="B13">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C13">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" ht="13.5" customHeight="1" spans="2:6">
       <c r="B14">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C14">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1" spans="2:6">
       <c r="B15">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C15">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" ht="13.5" customHeight="1" spans="2:6">
       <c r="B16">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C16">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="17" ht="13.5" customHeight="1" spans="2:6">
       <c r="B17">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C17">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" ht="13.5" customHeight="1" spans="2:6">
       <c r="B18">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C18">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F18" s="1"/>
     </row>
     <row r="19" ht="13.5" customHeight="1" spans="2:6">
       <c r="B19">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C19">
         <v>85</v>
@@ -1620,7 +1640,7 @@
     </row>
     <row r="20" ht="13.5" customHeight="1" spans="2:6">
       <c r="B20">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C20">
         <v>85</v>
@@ -1634,7 +1654,7 @@
     </row>
     <row r="21" ht="13.5" customHeight="1" spans="2:6">
       <c r="B21">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C21">
         <v>85</v>
@@ -1648,7 +1668,7 @@
     </row>
     <row r="22" ht="13.5" customHeight="1" spans="2:6">
       <c r="B22">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="C22">
         <v>85</v>
@@ -1662,7 +1682,7 @@
     </row>
     <row r="23" ht="13.5" customHeight="1" spans="2:6">
       <c r="B23">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C23">
         <v>85</v>
@@ -1671,40 +1691,40 @@
         <v>51</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" ht="13.5" customHeight="1" spans="2:6">
       <c r="B24">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C24">
         <v>85</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" ht="13.5" customHeight="1" spans="2:6">
       <c r="B25">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C25">
         <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" ht="13.5" customHeight="1" spans="2:6">
       <c r="B26">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="C26">
         <v>85</v>
@@ -1718,52 +1738,52 @@
     </row>
     <row r="27" ht="13.5" customHeight="1" spans="2:6">
       <c r="B27">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C27">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D27" t="s">
         <v>58</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" ht="13.5" customHeight="1" spans="2:6">
       <c r="B28">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C28">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" ht="13.5" customHeight="1" spans="2:6">
       <c r="B29">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C29">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" ht="13.5" customHeight="1" spans="2:6">
       <c r="B30">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C30">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s">
         <v>63</v>
@@ -1774,10 +1794,10 @@
     </row>
     <row r="31" ht="13.5" customHeight="1" spans="2:6">
       <c r="B31">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C31">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D31" t="s">
         <v>65</v>
@@ -1788,16 +1808,44 @@
     </row>
     <row r="32" ht="13.5" customHeight="1" spans="2:6">
       <c r="B32">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C32">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D32" t="s">
         <v>67</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="33" ht="13.5" customHeight="1" spans="2:6">
+      <c r="B33">
+        <v>1026</v>
+      </c>
+      <c r="C33">
+        <v>50</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" ht="13.5" customHeight="1" spans="2:6">
+      <c r="B34">
+        <v>1027</v>
+      </c>
+      <c r="C34">
+        <v>35</v>
+      </c>
+      <c r="D34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1810,10 +1858,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1823,172 +1871,178 @@
     <col min="7" max="7" width="52.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="4" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="4" t="s">
+    </row>
+    <row r="2" customFormat="1"/>
+    <row r="3" s="4" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" s="4" customFormat="1" ht="13.5" customHeight="1" spans="2:7">
-      <c r="B2" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" s="4" customFormat="1" ht="13.5" customHeight="1" spans="1:5">
-      <c r="A3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" s="4" customFormat="1" ht="13.5" customHeight="1" spans="2:7">
+      <c r="B4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="F4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" s="4" customFormat="1" ht="13.5" customHeight="1" spans="1:5">
+      <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" s="4" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
-      <c r="A4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" ht="13.5" customHeight="1" spans="2:7">
-      <c r="B5">
-        <v>1001</v>
-      </c>
-      <c r="C5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" s="4" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
+      <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="6" ht="13.5" customHeight="1" spans="2:7">
-      <c r="B6">
-        <v>1002</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="D6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="7" ht="13.5" customHeight="1" spans="2:7">
       <c r="B7">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="G7" t="s">
         <v>87</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="8" ht="13.5" customHeight="1" spans="2:7">
       <c r="B8">
+        <v>1002</v>
+      </c>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" ht="13.5" customHeight="1" spans="2:7">
+      <c r="B9">
+        <v>1003</v>
+      </c>
+      <c r="C9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" ht="13.5" customHeight="1" spans="2:7">
+      <c r="B10">
         <v>1004</v>
       </c>
-      <c r="C8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" ht="12.75" customHeight="1" spans="4:4">
-      <c r="D9" t="s">
-        <v>94</v>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" ht="12.75" customHeight="1" spans="4:4">
+      <c r="D11" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2001,78 +2055,53 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="4" width="9" style="4"/>
     <col min="5" max="5" width="76.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
-      <c r="A1" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" ht="13.5" customHeight="1" spans="1:5">
-      <c r="A2" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" ht="13.5" customHeight="1" spans="1:5">
+    <row r="1" spans="1:4">
+      <c r="A1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+    </row>
+    <row r="2" customFormat="1"/>
+    <row r="3" s="4" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
+        <v>101</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" ht="13.5" customHeight="1" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>102</v>
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>90</v>
       </c>
     </row>
     <row r="5" ht="13.5" customHeight="1" spans="1:5">
@@ -2080,16 +2109,16 @@
         <v>103</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E5" t="s">
         <v>105</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
       </c>
     </row>
     <row r="6" ht="13.5" customHeight="1" spans="1:5">
@@ -2097,7 +2126,7 @@
         <v>106</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>107</v>
@@ -2105,8 +2134,42 @@
       <c r="D6" t="s">
         <v>107</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="6" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="7" ht="13.5" customHeight="1" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" ht="13.5" customHeight="1" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2121,7 +2184,7 @@
   <sheetPr/>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -2137,10 +2200,10 @@
         <v>85</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" ht="13.5" customHeight="1" spans="1:3">
@@ -2148,10 +2211,10 @@
         <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" ht="13.5" customHeight="1" spans="1:3">
@@ -2159,10 +2222,10 @@
         <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" ht="13.5" customHeight="1" spans="1:5">
@@ -2170,13 +2233,13 @@
         <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" ht="13.5" customHeight="1" spans="1:5">
@@ -2184,10 +2247,10 @@
         <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -2196,10 +2259,10 @@
         <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -2208,10 +2271,10 @@
         <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -2220,7 +2283,7 @@
         <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -2229,13 +2292,13 @@
         <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" ht="13.5" customHeight="1" spans="1:5">
@@ -2243,7 +2306,7 @@
         <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -2252,7 +2315,7 @@
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E11" s="3"/>
     </row>
@@ -2261,13 +2324,13 @@
         <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" ht="13.5" customHeight="1" spans="1:3">
@@ -2275,10 +2338,10 @@
         <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" ht="13.5" customHeight="1" spans="1:3">
@@ -2286,10 +2349,10 @@
         <v>85</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1" spans="1:3">
@@ -2297,10 +2360,10 @@
         <v>85</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" ht="13.5" customHeight="1" spans="1:3">
@@ -2308,10 +2371,10 @@
         <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" ht="13.5" customHeight="1" spans="1:3">
@@ -2319,10 +2382,10 @@
         <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" ht="13.5" customHeight="1" spans="1:3">
@@ -2330,10 +2393,10 @@
         <v>85</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" ht="13.5" customHeight="1" spans="1:3">
@@ -2341,10 +2404,10 @@
         <v>85</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" ht="13.5" customHeight="1" spans="1:3">
@@ -2352,10 +2415,10 @@
         <v>85</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" ht="13.5" customHeight="1" spans="1:3">
@@ -2363,10 +2426,10 @@
         <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" ht="13.5" customHeight="1" spans="1:3">
@@ -2374,10 +2437,10 @@
         <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" ht="13.5" customHeight="1" spans="1:3">
@@ -2385,10 +2448,10 @@
         <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" ht="13.5" customHeight="1" spans="1:3">
@@ -2396,10 +2459,10 @@
         <v>70</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" ht="13.5" customHeight="1" spans="1:3">
@@ -2407,10 +2470,10 @@
         <v>60</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" ht="13.5" customHeight="1" spans="1:3">
@@ -2418,10 +2481,10 @@
         <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" ht="13.5" customHeight="1" spans="1:3">
@@ -2429,10 +2492,10 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Y_样本_example.xlsx
+++ b/Y_样本_example.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="weapon" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="84">
   <si>
     <t xml:space="preserve">weapon_conf</t>
   </si>
@@ -154,9 +154,6 @@
     <t xml:space="preserve">开放等级</t>
   </si>
   <si>
-    <t xml:space="preserve">int</t>
-  </si>
-  <si>
     <t xml:space="preserve">副本id</t>
   </si>
   <si>
@@ -178,6 +175,12 @@
     <t xml:space="preserve">18:30:00</t>
   </si>
   <si>
+    <t xml:space="preserve">注释</t>
+  </si>
+  <si>
+    <t xml:space="preserve">这行是注释，必须指定类型，但没有导出参数</t>
+  </si>
+  <si>
     <t xml:space="preserve">奖励</t>
   </si>
   <si>
@@ -187,10 +190,25 @@
     <t xml:space="preserve">award</t>
   </si>
   <si>
-    <t xml:space="preserve">[[1001,20],[3006,99],[7003,1]]</t>
+    <t xml:space="preserve">{{1001,20},{3006,99},{7003,1}}</t>
   </si>
   <si>
     <t xml:space="preserve">展示物品</t>
+  </si>
+  <si>
+    <t xml:space="preserve">award_show</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{2001,20},{4006,99},{8003,1}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不导出</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">因为上面有一空行，这里的数据被认为是无效的，不会导出</t>
   </si>
   <si>
     <t xml:space="preserve">equip/suit</t>
@@ -266,7 +284,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
@@ -277,23 +295,27 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFF10D0C"/>
+      <name val="宋体"/>
+      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFF10D0C"/>
+      <color rgb="FFC9211E"/>
       <name val="宋体"/>
       <family val="0"/>
       <charset val="134"/>
@@ -347,12 +369,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -431,7 +457,7 @@
       <rgbColor rgb="FF00B050"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -448,7 +474,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -456,8 +482,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="30.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.64"/>
   </cols>
@@ -712,8 +738,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -737,7 +763,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>14</v>
@@ -751,10 +777,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>14</v>
@@ -768,7 +794,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>11</v>
@@ -777,15 +803,15 @@
         <v>14</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>11</v>
@@ -794,47 +820,74 @@
         <v>14</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>49</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="0" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="D8" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -854,8 +907,8 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -870,36 +923,36 @@
         <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -913,6 +966,9 @@
       <c r="C3" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="D3" s="0" t="s">
+        <v>11</v>
+      </c>
       <c r="E3" s="0" t="s">
         <v>12</v>
       </c>
@@ -936,10 +992,10 @@
         <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>21</v>
@@ -956,10 +1012,10 @@
         <v>2</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -973,10 +1029,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -990,10 +1046,10 @@
         <v>6</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1007,10 +1063,10 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1024,10 +1080,10 @@
         <v>10</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1050,56 +1106,56 @@
   <dimension ref="B1:E27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="48.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="27.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="27.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.01"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1" s="3"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E4" s="4" t="s">
-        <v>75</v>
+      <c r="E4" s="5" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E5" s="4"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E6" s="4"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E7" s="4"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E8" s="4"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E9" s="4" t="s">
-        <v>76</v>
+      <c r="E9" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E10" s="4"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E11" s="4"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E12" s="4" t="s">
-        <v>77</v>
+      <c r="E12" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/Y_样本_example.xlsx
+++ b/Y_样本_example.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="weapon" sheetId="1" state="visible" r:id="rId2"/>
@@ -61,184 +61,184 @@
     <t xml:space="preserve">str</t>
   </si>
   <si>
+    <t xml:space="preserve">lua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">导出的数据类型，支持数字(num)、字符串(str)、lua表(lua)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">导出参数，s表示服务器，c表示客户端，空表示不导出</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">desc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">字段名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">金之剑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{1,700},{2,800},{3,900}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">金属性的战士才能挥舞的利剑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">木之剑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{1,700},{2,800},{3,901}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">木属性的战士才能挥舞的利剑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水之剑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{1,700},{2,800},{3,902}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水属性的战士才能挥舞的利剑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">火之剑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{1,700},{2,800},{3,903}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">火属性的战士才能挥舞的利剑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">土之剑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">土属性的战士才能挥舞的利剑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">空饰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">这件装饰没有特殊的能力，但非常好看</t>
+  </si>
+  <si>
+    <t xml:space="preserve">battle_conf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">索引为-1表示导出kv结构</t>
+  </si>
+  <si>
+    <t xml:space="preserve">开放等级</t>
+  </si>
+  <si>
+    <t xml:space="preserve">副本id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">开始时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">open</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">结束时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">close</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:30:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">注释</t>
+  </si>
+  <si>
+    <t xml:space="preserve">这行是注释，必须指定类型，但没有导出参数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">奖励</t>
+  </si>
+  <si>
+    <t xml:space="preserve">award</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{1001,20},{3006,99},{7003,1}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">展示物品</t>
+  </si>
+  <si>
+    <t xml:space="preserve">award_show</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{2001,20},{4006,99},{8003,1}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不导出</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">因为上面有一空行，这里的数据被认为是无效的，不会导出</t>
+  </si>
+  <si>
+    <t xml:space="preserve">equip/suit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suit_conf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">多级索引</t>
+  </si>
+  <si>
+    <t xml:space="preserve">多级目录</t>
+  </si>
+  <si>
+    <t xml:space="preserve">套装id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">套装类型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">需要装备数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">注释列</t>
+  </si>
+  <si>
+    <t xml:space="preserve">属性</t>
+  </si>
+  <si>
+    <t xml:space="preserve">虽然支持json类型，但建议还是用lua表。json没Lua灵活，反而更繁琐</t>
+  </si>
+  <si>
     <t xml:space="preserve">json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">导出的数据类型，支持数字(num)、字符串(str)、lua表(lua)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">导出参数，s表示服务器，c表示客户端，空表示不导出</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">字段名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">金之剑</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{{1,700},{2,800},{3,900}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">金属性的战士才能挥舞的利剑</t>
-  </si>
-  <si>
-    <t xml:space="preserve">木之剑</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{{1,700},{2,800},{3,901}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">木属性的战士才能挥舞的利剑</t>
-  </si>
-  <si>
-    <t xml:space="preserve">水之剑</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{{1,700},{2,800},{3,902}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">水属性的战士才能挥舞的利剑</t>
-  </si>
-  <si>
-    <t xml:space="preserve">火之剑</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{{1,700},{2,800},{3,903}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">火属性的战士才能挥舞的利剑</t>
-  </si>
-  <si>
-    <t xml:space="preserve">土之剑</t>
-  </si>
-  <si>
-    <t xml:space="preserve">土属性的战士才能挥舞的利剑</t>
-  </si>
-  <si>
-    <t xml:space="preserve">空饰</t>
-  </si>
-  <si>
-    <t xml:space="preserve">这件装饰没有特殊的能力，但非常好看</t>
-  </si>
-  <si>
-    <t xml:space="preserve">battle_conf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">索引为-1表示导出kv结构</t>
-  </si>
-  <si>
-    <t xml:space="preserve">开放等级</t>
-  </si>
-  <si>
-    <t xml:space="preserve">副本id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">开始时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">open</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">结束时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">close</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:30:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">注释</t>
-  </si>
-  <si>
-    <t xml:space="preserve">这行是注释，必须指定类型，但没有导出参数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">奖励</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">award</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{{1001,20},{3006,99},{7003,1}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">展示物品</t>
-  </si>
-  <si>
-    <t xml:space="preserve">award_show</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{{2001,20},{4006,99},{8003,1}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">不导出</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">因为上面有一空行，这里的数据被认为是无效的，不会导出</t>
-  </si>
-  <si>
-    <t xml:space="preserve">equip/suit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">suit_conf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">多级索引</t>
-  </si>
-  <si>
-    <t xml:space="preserve">多级目录</t>
-  </si>
-  <si>
-    <t xml:space="preserve">套装id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">套装类型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">需要装备数量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">注释列</t>
-  </si>
-  <si>
-    <t xml:space="preserve">属性</t>
-  </si>
-  <si>
-    <t xml:space="preserve">虽然支持json类型，但建议还是用lua表。json没Lua灵活，反而更繁琐</t>
   </si>
   <si>
     <t xml:space="preserve">type</t>
@@ -471,10 +471,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1048576"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -483,28 +483,27 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="30.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="13.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="30.46"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -522,12 +521,12 @@
       <c r="E2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -545,12 +544,12 @@
       <c r="E3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -568,12 +567,12 @@
       <c r="E4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -591,12 +590,12 @@
       <c r="E5" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -718,8 +717,6 @@
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.749305555555556" bottom="0.749305555555556" header="0.511805555555555" footer="0.511805555555555"/>
@@ -738,7 +735,7 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -842,38 +839,38 @@
         <v>52</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>54</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>57</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>11</v>
@@ -882,10 +879,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -923,36 +920,36 @@
         <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -970,7 +967,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Y_样本_example.xlsx
+++ b/Y_样本_example.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="weapon" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="84">
   <si>
     <t xml:space="preserve">weapon_conf</t>
   </si>
@@ -473,7 +473,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -482,7 +482,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="13.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="30.46"/>
   </cols>
@@ -904,8 +904,8 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1083,7 +1083,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.749305555555556" bottom="0.749305555555556" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Y_样本_example.xlsx
+++ b/Y_样本_example.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="weapon" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="90">
   <si>
     <t xml:space="preserve">weapon_conf</t>
   </si>
@@ -97,6 +97,9 @@
     <t xml:space="preserve">字段名</t>
   </si>
   <si>
+    <t xml:space="preserve">注释1</t>
+  </si>
+  <si>
     <t xml:space="preserve">金之剑</t>
   </si>
   <si>
@@ -106,6 +109,9 @@
     <t xml:space="preserve">金属性的战士才能挥舞的利剑</t>
   </si>
   <si>
+    <t xml:space="preserve">注释2</t>
+  </si>
+  <si>
     <t xml:space="preserve">木之剑</t>
   </si>
   <si>
@@ -115,6 +121,9 @@
     <t xml:space="preserve">木属性的战士才能挥舞的利剑</t>
   </si>
   <si>
+    <t xml:space="preserve">注释3</t>
+  </si>
+  <si>
     <t xml:space="preserve">水之剑</t>
   </si>
   <si>
@@ -124,6 +133,9 @@
     <t xml:space="preserve">水属性的战士才能挥舞的利剑</t>
   </si>
   <si>
+    <t xml:space="preserve">注释4</t>
+  </si>
+  <si>
     <t xml:space="preserve">火之剑</t>
   </si>
   <si>
@@ -133,10 +145,16 @@
     <t xml:space="preserve">火属性的战士才能挥舞的利剑</t>
   </si>
   <si>
+    <t xml:space="preserve">注释5</t>
+  </si>
+  <si>
     <t xml:space="preserve">土之剑</t>
   </si>
   <si>
     <t xml:space="preserve">土属性的战士才能挥舞的利剑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">注释6</t>
   </si>
   <si>
     <t xml:space="preserve">空饰</t>
@@ -471,20 +489,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="13.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="30.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="32.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="13.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="30.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -506,55 +524,52 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="B3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="B4" s="0" t="s">
         <v>14</v>
       </c>
@@ -562,50 +577,53 @@
         <v>14</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="B5" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="C5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="E5" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="0" t="n">
         <v>1001</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="C6" s="0" t="n">
         <v>85</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>24</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>25</v>
@@ -613,87 +631,105 @@
       <c r="E6" s="0" t="s">
         <v>26</v>
       </c>
+      <c r="F6" s="0" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="0" t="n">
         <v>1002</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="C7" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="D7" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="0" t="n">
         <v>1003</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="C8" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="D8" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="0" t="n">
         <v>1004</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="C9" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>33</v>
-      </c>
       <c r="D9" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="0" t="n">
         <v>1005</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="C10" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="D10" s="0" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="0" t="n">
         <v>1006</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="C11" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>39</v>
+      <c r="D11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -749,15 +785,15 @@
         <v>-1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>10</v>
@@ -774,7 +810,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>10</v>
@@ -791,7 +827,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>11</v>
@@ -800,15 +836,15 @@
         <v>14</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>11</v>
@@ -817,26 +853,26 @@
         <v>14</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>12</v>
@@ -845,15 +881,15 @@
         <v>15</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>12</v>
@@ -862,15 +898,15 @@
         <v>16</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>11</v>
@@ -879,10 +915,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -902,17 +938,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="26.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="27.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="52.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="26.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="27.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="52.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -920,43 +956,40 @@
         <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>65</v>
-      </c>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="B3" s="0" t="s">
         <v>10</v>
       </c>
@@ -964,140 +997,161 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>71</v>
+      <c r="F3" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="B4" s="0" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="F4" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="B5" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="C5" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>1</v>
+      <c r="A6" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>74</v>
-      </c>
       <c r="E6" s="0" t="s">
-        <v>75</v>
+        <v>80</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="C7" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="D7" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>74</v>
-      </c>
       <c r="E7" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="C8" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="D8" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>74</v>
-      </c>
       <c r="E8" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="C9" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="D9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>74</v>
-      </c>
       <c r="E9" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="C10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="D10" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>74</v>
-      </c>
       <c r="E10" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="C11" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="D11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>74</v>
-      </c>
       <c r="E11" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1134,13 +1188,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E4" s="5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1157,7 +1211,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E9" s="5" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1168,7 +1222,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E12" s="5" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
